--- a/doc/log/log_201508030322_王钰栋.xlsx
+++ b/doc/log/log_201508030322_王钰栋.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8955"/>
+    <workbookView windowWidth="10485" windowHeight="2295"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:E4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -65,6 +66,13 @@
   </si>
   <si>
     <t>表的创建</t>
+  </si>
+  <si>
+    <t>11:00-13:00</t>
+  </si>
+  <si>
+    <t>1：规范github库
+2.成功安装插件</t>
   </si>
   <si>
     <t>周次</t>
@@ -78,10 +86,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -93,6 +101,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -100,7 +130,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,15 +196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,44 +213,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -190,23 +228,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,22 +239,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +451,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,21 +467,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,6 +491,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -509,6 +517,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,22 +544,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,13 +1020,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1068,14 +1076,28 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:4">
+      <c r="A4" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1102,13 +1124,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030322_王钰栋.xlsx
+++ b/doc/log/log_201508030322_王钰栋.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10485" windowHeight="2295"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -73,6 +73,19 @@
   <si>
     <t>1：规范github库
 2.成功安装插件</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>1：复习昨天上课内容
+2：参照老师的完善base包</t>
+  </si>
+  <si>
+    <t>1：base包完善完成</t>
+  </si>
+  <si>
+    <t>上课内容还是有些不理解</t>
   </si>
   <si>
     <t>周次</t>
@@ -101,12 +114,63 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -114,77 +178,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,6 +210,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -211,38 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,37 +266,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,37 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,103 +422,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,30 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,6 +481,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -502,6 +506,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,15 +539,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,13 +1033,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1093,11 +1106,28 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="57" customHeight="1" spans="1:5">
+      <c r="A5" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1124,13 +1154,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
